--- a/ExternalFiles/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95659.xlsx
+++ b/ExternalFiles/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95659.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barajas\Documents\bosch_eeprom\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcaf9\Documents\Escuela\10mo Semestre\PITE\BOSCH\bosch_eeprom\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF5B74-DA5D-4B87-A0D0-749A2CD6E866}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D2D79-92DE-4DE8-9EE6-5B571857FCF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>E²PROM Container Review Checklist</t>
   </si>
@@ -201,9 +201,6 @@
     <t>sofia</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>datablock</t>
   </si>
   <si>
-    <t>BB16</t>
-  </si>
-  <si>
     <t>BB89</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>:(</t>
   </si>
   <si>
-    <t>:)</t>
-  </si>
-  <si>
     <t>JULIO</t>
   </si>
   <si>
@@ -256,9 +247,6 @@
   </si>
   <si>
     <t>JEJ</t>
-  </si>
-  <si>
-    <t>OSCAR</t>
   </si>
   <si>
     <t>BB95659</t>
@@ -1070,40 +1058,40 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="17" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="19" style="9" customWidth="1"/>
     <col min="10" max="10" width="14" style="9" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="46.140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="86.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.85546875" style="11" customWidth="1"/>
-    <col min="20" max="250" width="11.42578125" style="9" customWidth="1"/>
-    <col min="251" max="251" width="9.140625" style="9" customWidth="1"/>
-    <col min="252" max="16384" width="9.140625" style="9"/>
+    <col min="11" max="11" width="12.5546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="46.109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="86.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.88671875" style="11" customWidth="1"/>
+    <col min="20" max="250" width="11.44140625" style="9" customWidth="1"/>
+    <col min="251" max="251" width="9.109375" style="9" customWidth="1"/>
+    <col min="252" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1112,7 @@
       <c r="N1" s="10"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1143,12 +1131,12 @@
       <c r="N2" s="14"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1164,7 +1152,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1189,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1219,7 @@
       <c r="N6" s="51"/>
       <c r="O6" s="52"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1238,7 @@
       <c r="N7" s="55"/>
       <c r="O7" s="56"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1257,7 @@
       <c r="N8" s="55"/>
       <c r="O8" s="56"/>
     </row>
-    <row r="9" spans="1:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +1278,7 @@
       </c>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:19" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
       <c r="C10" s="45"/>
       <c r="D10" s="47" t="s">
@@ -1311,7 +1299,7 @@
       <c r="N10" s="41"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1385,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1424,7 +1412,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1449,7 +1437,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="35"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1472,7 +1460,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="35"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1499,7 +1487,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="35"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1524,7 +1512,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="35"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1551,7 +1539,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1580,7 +1568,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1588,7 +1576,7 @@
         <v>123456</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -1616,7 +1604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1612,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
@@ -1644,13 +1632,13 @@
       </c>
       <c r="N21" s="25"/>
       <c r="O21" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P21" s="9">
         <v>7</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R21" s="9">
         <v>8</v>
@@ -1659,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1667,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24" t="s">
@@ -1688,16 +1676,16 @@
         <v>34</v>
       </c>
       <c r="N22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>68</v>
       </c>
       <c r="P22" s="9">
         <v>6</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R22" s="9">
         <v>7</v>
@@ -1706,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1714,7 +1702,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>32</v>
@@ -1739,16 +1727,16 @@
         <v>34</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P23" s="9">
         <v>5</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R23" s="9">
         <v>6</v>
@@ -1757,7 +1745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1765,7 +1753,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>32</v>
@@ -1785,68 +1773,23 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="9">
         <v>10</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R24" s="9">
         <v>5</v>
       </c>
       <c r="S24" s="11">
         <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="P25" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="R25" s="9">
-        <v>4</v>
-      </c>
-      <c r="S25" s="11">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1861,13 +1804,13 @@
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="G10:I10"/>
   </mergeCells>
-  <conditionalFormatting sqref="N12:N25">
+  <conditionalFormatting sqref="N12:N24">
     <cfRule type="expression" dxfId="0" priority="201" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(N12)),M12="range")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M12:M25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M12:M24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"range,datablock"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1891,16 +1834,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="256" width="11.42578125" customWidth="1"/>
+    <col min="5" max="256" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1914,253 +1857,253 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>

--- a/ExternalFiles/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95659.xlsx
+++ b/ExternalFiles/EEPROM_Container_Review_Checkist_GM_iPB_GlobalB_BB95659.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcaf9\Documents\Escuela\10mo Semestre\PITE\BOSCH\bosch_eeprom\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D2D79-92DE-4DE8-9EE6-5B571857FCF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20D7FD-B1A6-4B68-86EA-69A88775E749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>E²PROM Container Review Checklist</t>
   </si>
@@ -201,9 +201,6 @@
     <t>sofia</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>JULIO</t>
   </si>
   <si>
-    <t>RUBEN</t>
-  </si>
-  <si>
     <t>JULIO Y RUBEN</t>
   </si>
   <si>
@@ -250,13 +244,17 @@
   </si>
   <si>
     <t>BB95659</t>
+  </si>
+  <si>
+    <t>description=- Component: Test
+- REPROG info: To be evaluated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -288,6 +286,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -636,7 +640,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -765,6 +769,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,9 +1067,9 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1568,7 +1575,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1576,7 +1583,7 @@
         <v>123456</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -1599,7 +1606,9 @@
         <v>34</v>
       </c>
       <c r="N20" s="25"/>
-      <c r="O20" s="35"/>
+      <c r="O20" s="61" t="s">
+        <v>71</v>
+      </c>
       <c r="S20" s="11">
         <v>9</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
@@ -1632,16 +1641,13 @@
       </c>
       <c r="N21" s="25"/>
       <c r="O21" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P21" s="9">
         <v>7</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="9">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="S21" s="11">
         <v>5</v>
@@ -1655,7 +1661,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24" t="s">
@@ -1676,16 +1682,13 @@
         <v>34</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P22" s="9">
         <v>6</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="R22" s="9">
         <v>7</v>
@@ -1702,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>32</v>
@@ -1727,16 +1730,13 @@
         <v>34</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" s="9">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R23" s="9">
         <v>6</v>
@@ -1752,9 +1752,7 @@
       <c r="B24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>56</v>
-      </c>
+      <c r="C24" s="24"/>
       <c r="D24" s="24" t="s">
         <v>32</v>
       </c>
@@ -1773,17 +1771,17 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="9">
         <v>10</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R24" s="9">
         <v>5</v>
